--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0B720F-0B2B-45D5-86E1-67FDA7CE5C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806747BE-E69D-45F2-90D5-E0BE239CB78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Vorbereitung Kundengespräch</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Fehlerbehebung einlesen</t>
+    <t>Projektabschnitt 5: Fehlerbehebung einlesen, einlesen/auswerten Eingabe</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2583,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="51"/>
       <c r="P9" s="79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="80"/>
       <c r="R9" s="8"/>
@@ -3356,7 +3356,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806747BE-E69D-45F2-90D5-E0BE239CB78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54406D1-3A63-41CA-8172-CA80302A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Projektabschnitt 5: Fehlerbehebung einlesen, einlesen/auswerten Eingabe</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2374,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+      <selection activeCell="P10" sqref="P10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2592,9 @@
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -2604,7 +2609,9 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="48"/>
-      <c r="P10" s="76"/>
+      <c r="P10" s="76">
+        <v>0.5</v>
+      </c>
       <c r="Q10" s="78"/>
       <c r="R10" s="7"/>
     </row>
@@ -3356,7 +3363,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54406D1-3A63-41CA-8172-CA80302A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F455DC-5B1E-4995-ABA7-AE563A88AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Projektabschnitt 5: Fehlerbehebung einlesen, einlesen/auswerten Eingabe</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben</t>
+    <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben, Nutzerstatistik</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:Q10"/>
+      <selection activeCell="A10" sqref="A10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2610,7 @@
       <c r="N10" s="31"/>
       <c r="O10" s="48"/>
       <c r="P10" s="76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="78"/>
       <c r="R10" s="7"/>
@@ -3363,7 +3363,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F455DC-5B1E-4995-ABA7-AE563A88AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A6F12A-8A4C-449E-926F-4894102ECA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben, Nutzerstatistik</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Anzeige Aufgabenblätter</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2377,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+      <selection activeCell="A12" sqref="A12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2619,9 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2631,7 +2636,9 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="51"/>
-      <c r="P11" s="79"/>
+      <c r="P11" s="79">
+        <v>0.75</v>
+      </c>
       <c r="Q11" s="80"/>
       <c r="R11" s="8"/>
     </row>
@@ -3363,7 +3370,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A6F12A-8A4C-449E-926F-4894102ECA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891892DD-AD5E-4BAE-AD1F-72BB37AFBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2377,7 +2377,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:O12"/>
+      <selection activeCell="P12" sqref="P12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +2637,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="51"/>
       <c r="P11" s="79">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" s="80"/>
       <c r="R11" s="8"/>
@@ -3370,7 +3370,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891892DD-AD5E-4BAE-AD1F-72BB37AFBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC8480-02B4-47F0-AFFE-BB228C09DA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben, Nutzerstatistik</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Anzeige Aufgabenblätter</t>
+    <t>Projektabschnitt 5: Anzeige Aufgabenblätter, Scriptfehler,</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2377,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:Q12"/>
+      <selection activeCell="A12" sqref="A12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +2637,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="51"/>
       <c r="P11" s="79">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" s="80"/>
       <c r="R11" s="8"/>
@@ -3370,7 +3370,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC8480-02B4-47F0-AFFE-BB228C09DA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4B3FD-AC4D-4A13-B7D1-5E331314D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Projektabschnitt 5: Prüfen auf unbearbeitete Aufgaben, Nutzerstatistik</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Anzeige Aufgabenblätter, Scriptfehler,</t>
+    <t>Projektabschnitt 5: Anzeige Aufgabenblätter, Scriptfehler, Übersicht Home</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2377,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:O12"/>
+      <selection activeCell="P11" sqref="P11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +2637,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="51"/>
       <c r="P11" s="79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="80"/>
       <c r="R11" s="8"/>
@@ -3370,7 +3370,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4B3FD-AC4D-4A13-B7D1-5E331314D196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A3DF3-18DA-4443-9DEE-EA419C0F3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -112,6 +112,9 @@
   <si>
     <t>Projektabschnitt 5: Anzeige Aufgabenblätter, Scriptfehler, Übersicht Home</t>
   </si>
+  <si>
+    <t>Projektabschnitt 5: Themenauswahl</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;Std.&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,20 +167,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -419,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -437,23 +426,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -634,6 +611,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -641,85 +648,59 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1081,66 +1062,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1163,36 +1144,36 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <v>34</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="63" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="65">
+      <c r="M5" s="60"/>
+      <c r="N5" s="62">
         <v>44431</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1210,892 +1191,892 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="32">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="22">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="19">
         <v>4.5</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="32">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="29">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="22">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="17"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="14"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="18"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="46">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="43">
         <v>6</v>
       </c>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="19"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="14"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="17"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="17"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="18"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29">
         <v>1.5</v>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="14"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="46">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="43">
         <v>4</v>
       </c>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="19"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29">
         <v>1</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="14"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="17"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="17"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="14"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="18"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29">
         <v>1.5</v>
       </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="14"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19">
         <v>5</v>
       </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="15"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="14"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="14"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="14"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="18"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="15"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
     </row>
     <row r="44" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="32">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29">
         <v>2</v>
       </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="14"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="15"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="26">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="16"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="13"/>
     </row>
     <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="6"/>
@@ -2112,12 +2093,12 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="28">
+      <c r="P47" s="25">
         <f>SUM(P8:Q46)</f>
         <v>32</v>
       </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="29"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2358,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q11"/>
+      <selection activeCell="A13" sqref="A13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,66 +2372,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2473,34 +2454,34 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <v>34</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="63" t="s">
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2518,840 +2499,844 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="76">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="63">
         <v>0.25</v>
       </c>
-      <c r="Q8" s="78"/>
+      <c r="Q8" s="65"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="79">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="66">
         <v>1</v>
       </c>
-      <c r="Q9" s="80"/>
+      <c r="Q9" s="67"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="76">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="63">
         <v>1</v>
       </c>
-      <c r="Q10" s="78"/>
+      <c r="Q10" s="65"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="79">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="66">
         <v>3</v>
       </c>
-      <c r="Q11" s="80"/>
+      <c r="Q11" s="67"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="9"/>
+      <c r="A12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="10"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76"/>
     </row>
     <row r="16" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="64"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="11"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="83"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="68"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="9"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="73"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="83"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="9"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="10"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="76"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="33"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="11"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="79"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="33"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="9"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="73"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="9"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="73"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="10"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="76"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="30"/>
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="30"/>
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="23"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="30"/>
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="23"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="8"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="10"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="76"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="40"/>
     </row>
     <row r="44" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="33"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="30"/>
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="12"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="6"/>
@@ -3368,12 +3353,12 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="85">
+      <c r="P47" s="69">
         <f>SUM(P7:R46)</f>
-        <v>5.25</v>
-      </c>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="86"/>
+        <v>6</v>
+      </c>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="70"/>
     </row>
     <row r="48" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A3DF3-18DA-4443-9DEE-EA419C0F3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1D25F-A114-4858-A9F8-9E9B5BB3DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2358,7 +2358,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:O13"/>
+      <selection activeCell="A14" sqref="A14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,13 +2642,15 @@
       <c r="N12" s="28"/>
       <c r="O12" s="45"/>
       <c r="P12" s="71">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2663,7 +2665,9 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="66"/>
+      <c r="P13" s="66">
+        <v>0.5</v>
+      </c>
       <c r="Q13" s="67"/>
       <c r="R13" s="8"/>
     </row>
@@ -3355,7 +3359,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="69">
         <f>SUM(P7:R46)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q47" s="69"/>
       <c r="R47" s="70"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF833228-9C1B-4C0A-B32E-F4D42C900692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15136351-2D8B-4F17-9CBB-10848BCEB50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Organisatorisches (Präsentation, Dokumente, etc.)</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Abschluss, Grundfunktionen erfüllt</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2364,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:O18"/>
+      <selection activeCell="A19" sqref="A19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2764,9 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -2776,7 +2781,9 @@
       <c r="M18" s="45"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
-      <c r="P18" s="76"/>
+      <c r="P18" s="76">
+        <v>0.25</v>
+      </c>
       <c r="Q18" s="77"/>
       <c r="R18" s="19"/>
     </row>
@@ -3366,7 +3373,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="66">
         <f>SUM(P7:R46)</f>
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q47" s="66"/>
       <c r="R47" s="67"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14E5EF-CF02-445E-97D2-14787D71312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A007963-3CC4-4241-9909-79F74DDF6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <t>Projektabschnitt 5: Abschluss, Grundfunktionen erfüllt</t>
   </si>
   <si>
-    <t>Projektdokumentation</t>
+    <t>Projektdokumentation, Projektphasen, GitHub zusammenführen (merge)</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2367,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:Q19"/>
+      <selection activeCell="A20" sqref="A20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2809,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" s="77"/>
       <c r="R19" s="7"/>
@@ -3380,7 +3380,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A007963-3CC4-4241-9909-79F74DDF6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB5BFCD-61C5-4D5C-BB2F-BBFAD60990A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Projektdokumentation, Projektphasen, GitHub zusammenführen (merge)</t>
+  </si>
+  <si>
+    <t>Abschlusstest Projektabschnitt 1 - 5 erfolgreich (Fehler korrigiert)</t>
+  </si>
+  <si>
+    <t>ü</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2373,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:O20"/>
+      <selection activeCell="A21" sqref="A21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2564,9 @@
         <v>0.25</v>
       </c>
       <c r="Q8" s="78"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -2582,7 +2590,9 @@
         <v>1</v>
       </c>
       <c r="Q9" s="80"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
@@ -2606,7 +2616,9 @@
         <v>1</v>
       </c>
       <c r="Q10" s="78"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -2630,7 +2642,9 @@
         <v>3</v>
       </c>
       <c r="Q11" s="80"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -2654,7 +2668,9 @@
         <v>1.25</v>
       </c>
       <c r="Q12" s="75"/>
-      <c r="R12" s="17"/>
+      <c r="R12" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -2678,7 +2694,9 @@
         <v>0.5</v>
       </c>
       <c r="Q13" s="80"/>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
@@ -2764,7 +2782,9 @@
         <v>0.25</v>
       </c>
       <c r="Q17" s="77"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -2788,7 +2808,9 @@
         <v>0.25</v>
       </c>
       <c r="Q18" s="73"/>
-      <c r="R18" s="19"/>
+      <c r="R18" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -2812,10 +2834,14 @@
         <v>1.5</v>
       </c>
       <c r="Q19" s="77"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2830,9 +2856,13 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="79"/>
+      <c r="P20" s="79">
+        <v>1</v>
+      </c>
       <c r="Q20" s="83"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
@@ -3380,7 +3410,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB5BFCD-61C5-4D5C-BB2F-BBFAD60990A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAD03A-E6BC-4FDA-858F-15F05FE09C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A18" sqref="A18:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:O21"/>
+      <selection activeCell="P21" sqref="P21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2865,9 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAD03A-E6BC-4FDA-858F-15F05FE09C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0185743-000D-4C64-98B0-13CCA61CD138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>ü</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 6: vorläufige Planung</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2376,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:Q21"/>
+      <selection activeCell="A23" sqref="A23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,12 +2885,18 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="74"/>
+      <c r="P21" s="74">
+        <v>0.5</v>
+      </c>
       <c r="Q21" s="75"/>
-      <c r="R21" s="17"/>
+      <c r="R21" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -2902,9 +2911,13 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="79"/>
+      <c r="P22" s="79">
+        <v>0.5</v>
+      </c>
       <c r="Q22" s="83"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
@@ -3412,7 +3425,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0185743-000D-4C64-98B0-13CCA61CD138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0CFAA-F159-41EA-8939-D312927594C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2376,7 +2376,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:O23"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2782,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="77"/>
       <c r="R17" s="7" t="s">
@@ -2920,7 +2920,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2935,12 +2937,18 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
-      <c r="P23" s="74"/>
+      <c r="P23" s="74">
+        <v>2</v>
+      </c>
       <c r="Q23" s="75"/>
-      <c r="R23" s="17"/>
+      <c r="R23" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -2955,9 +2963,13 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
-      <c r="P24" s="81"/>
+      <c r="P24" s="81">
+        <v>0.75</v>
+      </c>
       <c r="Q24" s="84"/>
-      <c r="R24" s="18"/>
+      <c r="R24" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
@@ -3425,7 +3437,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="85">
         <f>SUM(P7:R46)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="85"/>
       <c r="R47" s="86"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5EBA98-A860-40B3-AA78-359552CE0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B577F-744B-4C65-85C3-23D192ECE4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:O28"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2991,9 @@
         <v>1.5</v>
       </c>
       <c r="Q26" s="49"/>
-      <c r="R26" s="7"/>
+      <c r="R26" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B577F-744B-4C65-85C3-23D192ECE4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F614B76-EC91-4AC3-8DF9-A2AB47055F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,7 +3017,9 @@
         <v>5.25</v>
       </c>
       <c r="Q27" s="57"/>
-      <c r="R27" s="19"/>
+      <c r="R27" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
@@ -3041,7 +3043,9 @@
         <v>0.25</v>
       </c>
       <c r="Q28" s="49"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
